--- a/스케일링 계산.xlsx
+++ b/스케일링 계산.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\RL_Quant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E43BB0AD-C500-4243-BAB8-87EC82FE950C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E9DAD9-7F5A-4B68-8FA8-DEFF005CF094}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{D7180A74-9819-43D2-816D-8665CC222089}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>min</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +93,70 @@
   </si>
   <si>
     <t>편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pnl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>margin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총매수가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. discrete값들은 그대로 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 음수값이 나올수있으면 signed_log 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 나머지는 log1p 사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,13 +164,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
-    <numFmt numFmtId="178" formatCode="0.0000"/>
-    <numFmt numFmtId="180" formatCode="0.000000"/>
-    <numFmt numFmtId="181" formatCode="0.0000000"/>
-    <numFmt numFmtId="182" formatCode="0.00000000"/>
-    <numFmt numFmtId="183" formatCode="0.000000000"/>
-    <numFmt numFmtId="186" formatCode="0.000000000000000_ "/>
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.000000"/>
+    <numFmt numFmtId="178" formatCode="0.0000000"/>
+    <numFmt numFmtId="179" formatCode="0.00000000"/>
+    <numFmt numFmtId="180" formatCode="0.000000000"/>
+    <numFmt numFmtId="181" formatCode="0.000000000000000_ "/>
+    <numFmt numFmtId="193" formatCode="0.000000000_);[Red]\(0.000000000\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -138,12 +204,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -152,7 +233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,7 +243,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -171,17 +261,23 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F358F8-4AFE-4613-8046-5299C6153B60}">
-  <dimension ref="B4:U38"/>
+  <dimension ref="B4:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -508,6 +604,8 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="12" max="13" width="12.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="9.5" customWidth="1"/>
     <col min="20" max="20" width="19.375" bestFit="1" customWidth="1"/>
@@ -1801,9 +1899,469 @@
         <v>0.2622975247503751</v>
       </c>
     </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>118</v>
+      </c>
+      <c r="J43">
+        <f>LOG(I43)</f>
+        <v>2.0718820073061255</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>905.23</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ref="J44:J47" si="8">LOG(I44)</f>
+        <v>2.9567589383655037</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>2E-3</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="8"/>
+        <v>-2.6989700043360187</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>93.9</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="8"/>
+        <v>1.9726655922661109</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <v>1000</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="N47" s="2">
+        <v>48082.65</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="J48">
+        <f>MAX(J42:J47)</f>
+        <v>3</v>
+      </c>
+      <c r="N48" s="2">
+        <v>48082.37</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="J49">
+        <f>MIN(J42:J46)</f>
+        <v>-2.6989700043360187</v>
+      </c>
+      <c r="N49" s="2">
+        <v>48055.55</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="N50" s="2">
+        <v>48065.3</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <f>I43/10</f>
+        <v>11.8</v>
+      </c>
+      <c r="J51">
+        <f>LOG(I51)</f>
+        <v>1.0718820073061255</v>
+      </c>
+      <c r="N51" s="2">
+        <v>48059.33</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C52" s="2"/>
+      <c r="I52">
+        <f>I44/10</f>
+        <v>90.522999999999996</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ref="J52:J55" si="9">LOG(I52)</f>
+        <v>1.9567589383655037</v>
+      </c>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="2">
+        <v>48035.71</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C53" s="2"/>
+      <c r="I53">
+        <f>I45/10</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="9"/>
+        <v>-3.6989700043360187</v>
+      </c>
+      <c r="N53" s="2">
+        <v>47999.72</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C54" s="2"/>
+      <c r="I54">
+        <f>I46/10</f>
+        <v>9.39</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="9"/>
+        <v>0.97266559226611093</v>
+      </c>
+      <c r="N54" s="2">
+        <v>47999.54</v>
+      </c>
+      <c r="O54" t="e">
+        <f>O55/0-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P54">
+        <f>P55/O55-1</f>
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="I55">
+        <f>I47/10</f>
+        <v>100</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="M55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55">
+        <v>10</v>
+      </c>
+      <c r="O55">
+        <v>-0.2</v>
+      </c>
+      <c r="P55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="J56">
+        <f>MAX(J51:J55)</f>
+        <v>2</v>
+      </c>
+      <c r="M56" t="s">
+        <v>18</v>
+      </c>
+      <c r="N56">
+        <v>1000</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="J57">
+        <f>MAX(J51:J56)</f>
+        <v>2</v>
+      </c>
+      <c r="M57" t="s">
+        <v>19</v>
+      </c>
+      <c r="N57">
+        <v>0.1</v>
+      </c>
+      <c r="O57">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="J58">
+        <f>MIN(J51:J55)</f>
+        <v>-3.6989700043360187</v>
+      </c>
+      <c r="M58" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58">
+        <v>500</v>
+      </c>
+      <c r="O58">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C62" s="11"/>
+      <c r="F62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C63" s="11"/>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="J64">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3C2D71-6EA7-47E5-B4FF-11A4A40AACE9}">
+  <dimension ref="D9:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="14">
+        <f>F11*G11</f>
+        <v>1000</v>
+      </c>
+      <c r="F11" s="14">
+        <v>5</v>
+      </c>
+      <c r="G11" s="14">
+        <v>200</v>
+      </c>
+      <c r="H11" s="14">
+        <f>LOG(G11)</f>
+        <v>2.3010299956639813</v>
+      </c>
+      <c r="I11" s="14">
+        <v>5</v>
+      </c>
+      <c r="J11" s="14">
+        <f>H11*I11</f>
+        <v>11.505149978319906</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="14">
+        <f>F12*G12</f>
+        <v>336</v>
+      </c>
+      <c r="F12" s="14">
+        <v>3</v>
+      </c>
+      <c r="G12" s="14">
+        <v>112</v>
+      </c>
+      <c r="H12" s="14">
+        <f>LOG(G12)</f>
+        <v>2.0492180226701815</v>
+      </c>
+      <c r="I12" s="14">
+        <v>3</v>
+      </c>
+      <c r="J12" s="14">
+        <f>H12*I12</f>
+        <v>6.147654068010544</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D14" s="14"/>
+      <c r="E14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="14">
+        <f>SUM(E11:E12)</f>
+        <v>1336</v>
+      </c>
+      <c r="F15" s="14">
+        <f>SUM(F11:F12)</f>
+        <v>8</v>
+      </c>
+      <c r="G15" s="14">
+        <f>E15/F15</f>
+        <v>167</v>
+      </c>
+      <c r="H15" s="14">
+        <f>J15/I15</f>
+        <v>2.2066005057913065</v>
+      </c>
+      <c r="I15" s="14">
+        <f>SUM(I11:I12)</f>
+        <v>8</v>
+      </c>
+      <c r="J15" s="14">
+        <f>SUM(J11:J12)</f>
+        <v>17.652804046330452</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f>LOG(G15)</f>
+        <v>2.2227164711475833</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>